--- a/padam_excel/TS 4.1 Padam Input.xlsx
+++ b/padam_excel/TS 4.1 Padam Input.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\padam_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\padam_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4313,7 +4313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4642,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2288" workbookViewId="0">
-      <selection activeCell="B2295" sqref="B2295"/>
+    <sheetView tabSelected="1" topLeftCell="A2292" workbookViewId="0">
+      <selection activeCell="C2299" sqref="C2299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
